--- a/public/isp-website-statistics-updates.xlsx
+++ b/public/isp-website-statistics-updates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isiluyele\Desktop\PC\Documents\ZICTA Work Information\MNO POSTAL &amp; ISP Statistics\GENERAL INFORMATION\Websites Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\Zicta\zicta-website-client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4C7C92-AE71-47AF-A492-690B9AE06EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22305" windowHeight="6120"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISP" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="18">
   <si>
     <t>Annual</t>
   </si>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -191,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,9 +227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,35 +527,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42:K42"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="53.4" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
@@ -595,199 +593,199 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="16">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="15">
         <v>2010</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>13092666</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="19">
+      <c r="E2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18">
         <v>10267</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>7.8417947880133801E-2</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="16">
+      <c r="I2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
         <v>2011</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>13721498</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="E3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18">
         <v>19795</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>0.14426267452722727</v>
       </c>
-      <c r="I3" s="19">
-        <v>16</v>
-      </c>
-      <c r="J3" s="19">
+      <c r="I3" s="18">
+        <v>16</v>
+      </c>
+      <c r="J3" s="18">
         <v>122</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="16">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
         <v>2012</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>14156468</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18">
         <v>15839</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>0.11188525273394465</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>10</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <v>118</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
         <v>2013</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>14605555</v>
       </c>
-      <c r="E5" s="19">
-        <v>16</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="E5" s="18">
+        <v>16</v>
+      </c>
+      <c r="F5" s="18">
         <v>99</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>17231.2</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>0.11797702997250019</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>13</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>97</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
         <v>2014</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>15068729</v>
       </c>
-      <c r="E6" s="19">
-        <v>16</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="E6" s="18">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="18">
         <v>29349</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>0.19476758789676291</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>12</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>70</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="16">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
         <v>2015</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>15545778</v>
       </c>
-      <c r="E7" s="19">
-        <v>16</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="E7" s="18">
+        <v>16</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="18">
         <v>38316</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>0.24647206463388324</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>18</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>149</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>2016</v>
       </c>
@@ -819,7 +817,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>2016</v>
       </c>
@@ -851,7 +849,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>2016</v>
       </c>
@@ -883,7 +881,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>2016</v>
       </c>
@@ -915,7 +913,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>2016</v>
       </c>
@@ -947,14 +945,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
         <v>2017</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>16405229</v>
       </c>
       <c r="E13" s="12">
@@ -979,14 +977,14 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
         <v>2017</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>16405229</v>
       </c>
       <c r="E14" s="12">
@@ -1011,14 +1009,14 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
         <v>2017</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>16405229</v>
       </c>
       <c r="E15" s="12">
@@ -1043,14 +1041,14 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
         <v>2017</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>16405229</v>
       </c>
       <c r="E16" s="12">
@@ -1075,46 +1073,46 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="16">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
         <v>2017</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>16405229</v>
       </c>
-      <c r="E17" s="19">
-        <v>14</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="E17" s="18">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="18">
         <v>36108</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.22010055452441413</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>19</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <v>164</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <v>558</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
         <v>2018</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>16887720</v>
       </c>
       <c r="E18" s="12">
@@ -1139,14 +1137,14 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="14">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
         <v>2018</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>16887720</v>
       </c>
       <c r="E19" s="12">
@@ -1171,14 +1169,14 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
         <v>2018</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>16887720</v>
       </c>
       <c r="E20" s="12">
@@ -1203,14 +1201,14 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="14">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
         <v>2018</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>16887720</v>
       </c>
       <c r="E21" s="12">
@@ -1235,46 +1233,46 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="16">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
         <v>2018</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>16887720</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>17</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="F22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="18">
         <v>73532</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>0.43541697754344577</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>10</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <v>139</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="14">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
         <v>2019</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>17381168</v>
       </c>
       <c r="E23" s="12">
@@ -1299,14 +1297,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="14">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
         <v>2019</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>17381168</v>
       </c>
       <c r="E24" s="12">
@@ -1331,14 +1329,14 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="14">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
         <v>2019</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>17381168</v>
       </c>
       <c r="E25" s="12">
@@ -1363,14 +1361,14 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="14">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
         <v>2019</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>17381168</v>
       </c>
       <c r="E26" s="12">
@@ -1395,46 +1393,46 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="16">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
         <v>2019</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <v>17381168</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>17</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="19">
+      <c r="F27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="18">
         <v>89533</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>0.51511497961471864</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>10</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <v>94</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="18">
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="14">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
         <v>2020</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>17885422</v>
       </c>
       <c r="E28" s="12">
@@ -1459,14 +1457,14 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="14">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
         <v>2020</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>17885422</v>
       </c>
       <c r="E29" s="12">
@@ -1491,14 +1489,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="14">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
         <v>2020</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>17885422</v>
       </c>
       <c r="E30" s="12">
@@ -1523,14 +1521,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="14">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
         <v>2020</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>17885422</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -1555,46 +1553,46 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
         <v>2020</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>17885422</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="19">
+      <c r="E32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="18">
         <v>82317</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>0.46024633916940844</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>7</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <v>65</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="18">
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="14">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
         <v>2021</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>18400556</v>
       </c>
       <c r="E33" s="12">
@@ -1619,14 +1617,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="14">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
         <v>2021</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>18400556</v>
       </c>
       <c r="E34" s="12">
@@ -1651,14 +1649,14 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="14">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
         <v>2021</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>18400556</v>
       </c>
       <c r="E35" s="12">
@@ -1683,14 +1681,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="14">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
         <v>2021</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>18400556</v>
       </c>
       <c r="E36" s="12">
@@ -1715,46 +1713,46 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="16">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
         <v>2021</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <v>18400556</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>17</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="19">
+      <c r="F37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="18">
         <v>80611</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>0.43809002293191573</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <v>8</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>62</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="18">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="14">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>19610769</v>
       </c>
       <c r="E38" s="12">
@@ -1779,14 +1777,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="14">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>19610769</v>
       </c>
       <c r="E39" s="12">
@@ -1811,14 +1809,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="14">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>19610769</v>
       </c>
       <c r="E40" s="12">
@@ -1843,14 +1841,14 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="14">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>19610769</v>
       </c>
       <c r="E41" s="12">
@@ -1875,37 +1873,200 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="16">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="17">
         <v>19610769</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>19</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="19">
+      <c r="F42" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="18">
         <v>86446</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="19">
         <v>0.44080882294824852</v>
       </c>
-      <c r="I42" s="19">
-        <v>14</v>
-      </c>
-      <c r="J42" s="19">
+      <c r="I42" s="18">
+        <v>14</v>
+      </c>
+      <c r="J42" s="18">
         <v>61</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="18">
         <v>220</v>
       </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="14">
+        <v>19610769</v>
+      </c>
+      <c r="E43" s="12">
+        <v>14</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="12">
+        <v>86242</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0.43976857817253368</v>
+      </c>
+      <c r="I43" s="12">
+        <v>16</v>
+      </c>
+      <c r="J43" s="12">
+        <v>61</v>
+      </c>
+      <c r="K43" s="12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="14">
+        <v>19610769</v>
+      </c>
+      <c r="E44" s="12">
+        <v>14</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="12">
+        <v>82254</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0.41943281265512838</v>
+      </c>
+      <c r="I44" s="12">
+        <v>14</v>
+      </c>
+      <c r="J44" s="12">
+        <v>63</v>
+      </c>
+      <c r="K44" s="12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="14">
+        <v>19610769</v>
+      </c>
+      <c r="E45" s="12">
+        <v>14</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="12">
+        <v>106053</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0.54078960391609321</v>
+      </c>
+      <c r="I45" s="12">
+        <v>12</v>
+      </c>
+      <c r="J45" s="12">
+        <v>65</v>
+      </c>
+      <c r="K45" s="12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="14">
+        <v>19610769</v>
+      </c>
+      <c r="E46" s="12">
+        <v>12</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="12">
+        <v>98960</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0.54078960391609321</v>
+      </c>
+      <c r="I46" s="12">
+        <v>11</v>
+      </c>
+      <c r="J46" s="12">
+        <v>59</v>
+      </c>
+      <c r="K46" s="12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="17">
+        <v>19610769</v>
+      </c>
+      <c r="E47" s="18">
+        <v>12</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="18">
+        <v>98960</v>
+      </c>
+      <c r="H47" s="19">
+        <v>0.54078960391609321</v>
+      </c>
+      <c r="I47" s="18">
+        <v>11</v>
+      </c>
+      <c r="J47" s="18">
+        <v>59</v>
+      </c>
+      <c r="K47" s="18">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
